--- a/data/trans_orig/P04A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16708</v>
+        <v>15459</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.008961420252948368</v>
+        <v>0.008961420252948365</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001837815309204053</v>
+        <v>0.001826748981142887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03046282217345225</v>
+        <v>0.02818616314236417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5716</v>
+        <v>5706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003271817280015282</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01173664149515017</v>
+        <v>0.01171591199973768</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>6508</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1984</v>
+        <v>1955</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16748</v>
+        <v>15871</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006285467878471259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001916035475035937</v>
+        <v>0.00188815729578735</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01617462121187325</v>
+        <v>0.01532775644915811</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8986</v>
+        <v>8505</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.005964564559228246</v>
+        <v>0.005964564559228245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001716038794978132</v>
+        <v>0.001673076238618118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01638403186091779</v>
+        <v>0.01550681363830028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>5009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2309</v>
+        <v>2246</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10427</v>
+        <v>10076</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01028467334462764</v>
+        <v>0.01028467334462763</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004740709113760214</v>
+        <v>0.004612933577214096</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02141153050936186</v>
+        <v>0.02069100572107408</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>8280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4361</v>
+        <v>4302</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14396</v>
+        <v>14124</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007996412021570478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004212063748891839</v>
+        <v>0.004154306005407038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01390313809963151</v>
+        <v>0.01364045666844618</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>65414</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49776</v>
+        <v>50371</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83205</v>
+        <v>83621</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1192697610487062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09075636756386193</v>
+        <v>0.09184106310674096</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1517081029099302</v>
+        <v>0.152466517842976</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -904,19 +904,19 @@
         <v>46313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34477</v>
+        <v>34242</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59775</v>
+        <v>59566</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09509907001081334</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07079559542680237</v>
+        <v>0.07031325004417956</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1227407362789409</v>
+        <v>0.1223133236905349</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -925,19 +925,19 @@
         <v>111727</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92615</v>
+        <v>92223</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>132909</v>
+        <v>131896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1079017238792764</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08944333856315208</v>
+        <v>0.08906532632650614</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1283577442146684</v>
+        <v>0.1273796693015268</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>17987</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10290</v>
+        <v>10031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30974</v>
+        <v>31170</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03279599017433525</v>
+        <v>0.03279599017433524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01876163197825263</v>
+        <v>0.01828939518930194</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05647531950723539</v>
+        <v>0.05683222431086574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -975,19 +975,19 @@
         <v>15793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9950</v>
+        <v>9878</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25196</v>
+        <v>23580</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03242917398290215</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02043076731032362</v>
+        <v>0.02028436680312123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05173756244686492</v>
+        <v>0.04841897529052162</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -996,19 +996,19 @@
         <v>33780</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24359</v>
+        <v>22877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49854</v>
+        <v>47610</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03262346800308152</v>
+        <v>0.03262346800308153</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02352453459258861</v>
+        <v>0.02209374662532645</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04814691430429618</v>
+        <v>0.04597962917636247</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>157255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133286</v>
+        <v>135297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>181798</v>
+        <v>179766</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2867234224976777</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2430202442233039</v>
+        <v>0.2466858781645207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3314722514299337</v>
+        <v>0.3277674989308743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>204</v>
@@ -1046,19 +1046,19 @@
         <v>151341</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>133847</v>
+        <v>133315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>171406</v>
+        <v>169782</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3107619209602072</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2748403286495665</v>
+        <v>0.2737473337608823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3519627743035253</v>
+        <v>0.348628083012967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>336</v>
@@ -1067,19 +1067,19 @@
         <v>308596</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>278035</v>
+        <v>279617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>335929</v>
+        <v>336212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2980292864297807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2685140914639659</v>
+        <v>0.2700420788500699</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3244259975924659</v>
+        <v>0.324699197633997</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>299614</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>276621</v>
+        <v>275341</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>322703</v>
+        <v>324523</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5462848414671044</v>
+        <v>0.5462848414671042</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5043620744289915</v>
+        <v>0.502027988365888</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5883840697950153</v>
+        <v>0.5917024127486058</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>395</v>
@@ -1117,19 +1117,19 @@
         <v>266950</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>248078</v>
+        <v>247794</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>286996</v>
+        <v>286160</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5481533444214343</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5094020223486795</v>
+        <v>0.5088182722516412</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5893154275763984</v>
+        <v>0.5875984907013606</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>736</v>
@@ -1138,19 +1138,19 @@
         <v>566564</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>535035</v>
+        <v>535905</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>597387</v>
+        <v>598967</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5471636417878197</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5167142896764012</v>
+        <v>0.5175545499786415</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5769312291950478</v>
+        <v>0.5784572398834695</v>
       </c>
     </row>
     <row r="10">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5788</v>
+        <v>5869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00241022545798706</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01203468029365042</v>
+        <v>0.01220187788117397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4822</v>
+        <v>4990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002984944148461163</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01144358667245078</v>
+        <v>0.01184294890920143</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1284,19 +1284,19 @@
         <v>2417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7437</v>
+        <v>7001</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00267860190492893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0005525033353852325</v>
+        <v>0.0005499136062862923</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008241967223839465</v>
+        <v>0.007758757699183041</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>5153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1759</v>
+        <v>2298</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11496</v>
+        <v>11445</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0107135553234476</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003656959799530636</v>
+        <v>0.004777486099172145</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02390150239222194</v>
+        <v>0.0237953492969596</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1334,19 +1334,19 @@
         <v>6211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2060</v>
+        <v>2370</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16393</v>
+        <v>14874</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01473938193656051</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004888234210505915</v>
+        <v>0.005625335624995936</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03890262619263008</v>
+        <v>0.03529957283542441</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>11364</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5492</v>
+        <v>5561</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21686</v>
+        <v>21210</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01259349599762331</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006086465889526352</v>
+        <v>0.0061631840604949</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02403296033116161</v>
+        <v>0.02350496550612519</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>50827</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37817</v>
+        <v>38028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67229</v>
+        <v>67277</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1056734062528393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07862421870376721</v>
+        <v>0.07906395581574105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1397739205812356</v>
+        <v>0.1398738101020538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -1405,19 +1405,19 @@
         <v>45950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34843</v>
+        <v>34856</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59047</v>
+        <v>59931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1090472586810294</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08268883650518126</v>
+        <v>0.08271960211441584</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1401304470948716</v>
+        <v>0.1422280568938809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1426,19 +1426,19 @@
         <v>96777</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79497</v>
+        <v>78459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116329</v>
+        <v>119248</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1072488944737582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08809899254941098</v>
+        <v>0.08694861567478077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1289164995679569</v>
+        <v>0.1321512583364088</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>9183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3991</v>
+        <v>4348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17149</v>
+        <v>16869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01909278510698401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008296910540881879</v>
+        <v>0.009039935859719985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03565357742795412</v>
+        <v>0.03507232584948693</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1476,19 +1476,19 @@
         <v>16712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10323</v>
+        <v>10277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24814</v>
+        <v>25154</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03965991337787066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0244984780078416</v>
+        <v>0.02438870216438292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05888925143002834</v>
+        <v>0.05969592288476705</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -1497,19 +1497,19 @@
         <v>25895</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17696</v>
+        <v>17457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37910</v>
+        <v>37322</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02869701914465704</v>
+        <v>0.02869701914465703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01961039923514422</v>
+        <v>0.01934622389994815</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04201195956855944</v>
+        <v>0.04135999128246928</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>155534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>135121</v>
+        <v>134519</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>179045</v>
+        <v>181245</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3233667625804731</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2809265028237833</v>
+        <v>0.2796750086768537</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3722465479059713</v>
+        <v>0.3768218678535654</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>204</v>
@@ -1547,19 +1547,19 @@
         <v>155064</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>138916</v>
+        <v>138442</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>173461</v>
+        <v>174025</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3679958074108342</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3296739632351913</v>
+        <v>0.3285488480042347</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.411655572792155</v>
+        <v>0.4129948128482133</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>339</v>
@@ -1568,19 +1568,19 @@
         <v>310598</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>280218</v>
+        <v>283604</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>336466</v>
+        <v>336797</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3442071923081043</v>
+        <v>0.3442071923081042</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3105392154860955</v>
+        <v>0.3142920581596128</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3728736781681077</v>
+        <v>0.3732410317454199</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>259127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>234032</v>
+        <v>234906</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>278990</v>
+        <v>282079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5387432652782689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4865695213544567</v>
+        <v>0.4883862528276136</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5800391360401074</v>
+        <v>0.5864615582526167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>298</v>
@@ -1618,19 +1618,19 @@
         <v>196180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>177091</v>
+        <v>178563</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214404</v>
+        <v>214987</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4655726944452442</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4202699840857994</v>
+        <v>0.4237641428861109</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.508822125152415</v>
+        <v>0.5102050949824127</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>583</v>
@@ -1639,19 +1639,19 @@
         <v>455307</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>426096</v>
+        <v>428020</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>484111</v>
+        <v>484768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5045747961709284</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4722031848851312</v>
+        <v>0.4743354677023185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5364951771069102</v>
+        <v>0.5372241015813717</v>
       </c>
     </row>
     <row r="17">
@@ -1746,16 +1746,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12383</v>
+        <v>11717</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.006807284589568395</v>
+        <v>0.006807284589568396</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02630939280587548</v>
+        <v>0.024894075233424</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3375</v>
+        <v>3606</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005742149235029402</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01807054162344724</v>
+        <v>0.01930353077870634</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1785,19 +1785,19 @@
         <v>4277</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13141</v>
+        <v>12289</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.006504669770037349</v>
+        <v>0.006504669770037348</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001676308426159769</v>
+        <v>0.001649196675061805</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01998740948775722</v>
+        <v>0.01869107476151303</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>5893</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2108</v>
+        <v>2500</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12369</v>
+        <v>12851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01251959655774066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004478229676640013</v>
+        <v>0.005310986345952896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02627973906400229</v>
+        <v>0.02730264667559439</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1838,16 +1838,16 @@
         <v>553</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5183</v>
+        <v>5334</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01174858527867465</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00296034248869689</v>
+        <v>0.002960946364376266</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02774715440764939</v>
+        <v>0.02855853679644312</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1856,19 +1856,19 @@
         <v>8087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4020</v>
+        <v>4033</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14350</v>
+        <v>15019</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01230054511223499</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006114434462068843</v>
+        <v>0.006133902059736972</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02182699114193157</v>
+        <v>0.02284346078629783</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>60970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45783</v>
+        <v>45416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77919</v>
+        <v>78756</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1295380539880247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09727201006819748</v>
+        <v>0.09649235146257118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1655501476086305</v>
+        <v>0.1673279576622186</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1906,19 +1906,19 @@
         <v>14868</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9074</v>
+        <v>8838</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22886</v>
+        <v>22952</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0795972624313513</v>
+        <v>0.07959726243135129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04858031818036523</v>
+        <v>0.04731285043947824</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.12252451431293</v>
+        <v>0.1228784048922931</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>69</v>
@@ -1927,19 +1927,19 @@
         <v>75838</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60065</v>
+        <v>58405</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>95985</v>
+        <v>94004</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1153494125540904</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09135868924890939</v>
+        <v>0.08883504644382383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.14599322460039</v>
+        <v>0.1429812690794084</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>25813</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17808</v>
+        <v>16923</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37378</v>
+        <v>36752</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05484249359035655</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03783502958288176</v>
+        <v>0.03595534523654823</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07941515801628854</v>
+        <v>0.07808453259596201</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1977,19 +1977,19 @@
         <v>7857</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4320</v>
+        <v>4039</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12897</v>
+        <v>13515</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0420659318797777</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02312742229637334</v>
+        <v>0.02162082656160771</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06904499581747357</v>
+        <v>0.07235375525666189</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>40</v>
@@ -1998,19 +1998,19 @@
         <v>33670</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24547</v>
+        <v>24163</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>45436</v>
+        <v>45710</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05121255407159228</v>
+        <v>0.05121255407159227</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03733638467049461</v>
+        <v>0.03675207016871197</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06910873160024097</v>
+        <v>0.06952502985756881</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>108523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90838</v>
+        <v>87950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130314</v>
+        <v>130278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.230572772699874</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1929967716627374</v>
+        <v>0.1868609347494644</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2768696810921558</v>
+        <v>0.2767929309962462</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -2048,19 +2048,19 @@
         <v>44026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34919</v>
+        <v>34578</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54788</v>
+        <v>54064</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2356977329928979</v>
+        <v>0.2356977329928978</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1869449578197538</v>
+        <v>0.1851164554979411</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2933152579367259</v>
+        <v>0.2894360440267305</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -2069,19 +2069,19 @@
         <v>152550</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>130241</v>
+        <v>133203</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176851</v>
+        <v>178394</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2320288213866143</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1980975667882468</v>
+        <v>0.2026029487994076</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2689914624866832</v>
+        <v>0.2713380068077614</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>266267</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>242631</v>
+        <v>243071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>287079</v>
+        <v>288788</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5657197985744357</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5155016446958766</v>
+        <v>0.5164378336863447</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6099381074927733</v>
+        <v>0.6135682902538692</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>190</v>
@@ -2119,19 +2119,19 @@
         <v>116771</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>104401</v>
+        <v>105622</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>127841</v>
+        <v>128248</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.625148338182269</v>
+        <v>0.6251483381822691</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5589197815754574</v>
+        <v>0.5654581124762152</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.68441196285781</v>
+        <v>0.6865881386351439</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>501</v>
@@ -2140,19 +2140,19 @@
         <v>383039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>358603</v>
+        <v>356571</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>408772</v>
+        <v>407023</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5826039971054308</v>
+        <v>0.5826039971054305</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5454362602458154</v>
+        <v>0.542345903413034</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6217448534928511</v>
+        <v>0.6190834719833835</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>9817</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4137</v>
+        <v>4033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23011</v>
+        <v>22460</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.008686391544784129</v>
+        <v>0.008686391544784127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003660246480868392</v>
+        <v>0.003568840697406236</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02036006243390389</v>
+        <v>0.01987271795402196</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2265,19 +2265,19 @@
         <v>6677</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3143</v>
+        <v>3068</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12684</v>
+        <v>12102</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00779357139216039</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00366890949155109</v>
+        <v>0.003581814694191851</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01480625652727248</v>
+        <v>0.01412694811650931</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -2286,19 +2286,19 @@
         <v>16494</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9328</v>
+        <v>9268</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28225</v>
+        <v>27940</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.008301433677929491</v>
+        <v>0.008301433677929489</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004694881936966234</v>
+        <v>0.00466462927270808</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01420592886930795</v>
+        <v>0.01406243897848111</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>25162</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15308</v>
+        <v>16356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39020</v>
+        <v>41405</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02226388053354646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01354471997353818</v>
+        <v>0.0144715740500845</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03452490962298303</v>
+        <v>0.03663569628272251</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2336,19 +2336,19 @@
         <v>17379</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10953</v>
+        <v>11171</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25619</v>
+        <v>27324</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02028594664963321</v>
+        <v>0.02028594664963322</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01278516033910029</v>
+        <v>0.01303990300705867</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02990481396618347</v>
+        <v>0.03189570576300124</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -2357,19 +2357,19 @@
         <v>42541</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30260</v>
+        <v>30636</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>59511</v>
+        <v>57224</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02141105344794231</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01523010418625868</v>
+        <v>0.01541902866815682</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02995183017654805</v>
+        <v>0.02880103610813596</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>162431</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>135174</v>
+        <v>134567</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>192066</v>
+        <v>194370</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1437196887869736</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.119602378615181</v>
+        <v>0.1190652597481857</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1699409293712115</v>
+        <v>0.1719796682751076</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>145</v>
@@ -2407,19 +2407,19 @@
         <v>119158</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>100954</v>
+        <v>102015</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>138047</v>
+        <v>138965</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1390922762817218</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1178435362271808</v>
+        <v>0.1190815328574192</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1611412972646886</v>
+        <v>0.162213407088262</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>267</v>
@@ -2428,19 +2428,19 @@
         <v>281589</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>244222</v>
+        <v>249976</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>315836</v>
+        <v>317462</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1417244842187934</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1229178632282205</v>
+        <v>0.1258135344470966</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1589610248973024</v>
+        <v>0.1597797626085268</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>55967</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>42657</v>
+        <v>40875</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>77145</v>
+        <v>75146</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04951968326406909</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03774307716128397</v>
+        <v>0.03616629895384769</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06825855608723463</v>
+        <v>0.06648928142342277</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>50</v>
@@ -2478,19 +2478,19 @@
         <v>37182</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27001</v>
+        <v>26171</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48162</v>
+        <v>49641</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04340245849250842</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03151757982743324</v>
+        <v>0.03054956024080776</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05621908590555696</v>
+        <v>0.0579460798359056</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>98</v>
@@ -2499,19 +2499,19 @@
         <v>93149</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>73231</v>
+        <v>74967</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>115868</v>
+        <v>117248</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04688211533707948</v>
+        <v>0.04688211533707947</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03685722213413468</v>
+        <v>0.03773113070562611</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05831673563501869</v>
+        <v>0.05901112403502432</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>255718</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>226183</v>
+        <v>225947</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>288391</v>
+        <v>289539</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2262608088064623</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2001276340532281</v>
+        <v>0.1999192986542981</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2551695063197438</v>
+        <v>0.2561856836507381</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>319</v>
@@ -2549,19 +2549,19 @@
         <v>245617</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>221546</v>
+        <v>223079</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>269103</v>
+        <v>269182</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2867075589384472</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2586095135955324</v>
+        <v>0.2603993267566049</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.314122306732694</v>
+        <v>0.3142145364846644</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>545</v>
@@ -2570,19 +2570,19 @@
         <v>501335</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>463544</v>
+        <v>461983</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>542479</v>
+        <v>540042</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2523236747943346</v>
+        <v>0.2523236747943345</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2333030513687965</v>
+        <v>0.2325175886650914</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2730315705789058</v>
+        <v>0.2718047194819184</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>621097</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>584600</v>
+        <v>583418</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>658072</v>
+        <v>660451</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5495495470641645</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5172569182520069</v>
+        <v>0.5162114147060481</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5822659514418425</v>
+        <v>0.5843704805219618</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>679</v>
@@ -2620,19 +2620,19 @@
         <v>430670</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>404728</v>
+        <v>405652</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>455241</v>
+        <v>455790</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5027181882455289</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.472436318672434</v>
+        <v>0.4735148551296174</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5314000004894255</v>
+        <v>0.5320416216858733</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1371</v>
@@ -2641,19 +2641,19 @@
         <v>1051766</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1007084</v>
+        <v>1005941</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1093680</v>
+        <v>1099365</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5293572385239207</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5068686416785345</v>
+        <v>0.5062931380729128</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5504524343628753</v>
+        <v>0.5533138187746132</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>11888</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4766</v>
+        <v>5021</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25765</v>
+        <v>27828</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0209315283373324</v>
+        <v>0.02093152833733239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008392212451620463</v>
+        <v>0.008839836450309746</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04536297297003994</v>
+        <v>0.04899676898128225</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -2766,19 +2766,19 @@
         <v>8997</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4483</v>
+        <v>4631</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18117</v>
+        <v>18783</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01085912319323576</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00541084534372429</v>
+        <v>0.005589438024743792</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02186728033742785</v>
+        <v>0.02267126736786046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -2787,19 +2787,19 @@
         <v>20885</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11785</v>
+        <v>11258</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>35841</v>
+        <v>35861</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01495572366011891</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008438901776698253</v>
+        <v>0.008061998152810505</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02566532791853075</v>
+        <v>0.02568015020682654</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>21785</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>14128</v>
+        <v>13473</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>33852</v>
+        <v>33026</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03835664665103442</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02487467747788319</v>
+        <v>0.02372128178926031</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05960221864625968</v>
+        <v>0.05814829617650172</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>22</v>
@@ -2837,19 +2837,19 @@
         <v>14782</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>9727</v>
+        <v>9395</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>22160</v>
+        <v>23014</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.017841282424995</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01174052865320434</v>
+        <v>0.01133946277052945</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02674688002779219</v>
+        <v>0.02777776420850614</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>42</v>
@@ -2858,19 +2858,19 @@
         <v>36567</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>25960</v>
+        <v>26009</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>50065</v>
+        <v>49419</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02618519328484838</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01858975750218729</v>
+        <v>0.01862466424092139</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03585132149428732</v>
+        <v>0.03538866242040336</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>125023</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>102464</v>
+        <v>103924</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>147867</v>
+        <v>151622</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2201251392174703</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1804051834232828</v>
+        <v>0.1829765673154689</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2603458600146508</v>
+        <v>0.2669575803419629</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>147</v>
@@ -2908,19 +2908,19 @@
         <v>119819</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>99565</v>
+        <v>101679</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>137997</v>
+        <v>140588</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1446208343759965</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1201742262563996</v>
+        <v>0.1227263448237334</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1665617275401615</v>
+        <v>0.1696895517824771</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>255</v>
@@ -2929,19 +2929,19 @@
         <v>244842</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>217903</v>
+        <v>216140</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>275300</v>
+        <v>275722</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1753295842763671</v>
+        <v>0.175329584276367</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1560392379167933</v>
+        <v>0.1547768307428586</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1971407283598093</v>
+        <v>0.1974431653250081</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>41850</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29681</v>
+        <v>30247</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>55914</v>
+        <v>57622</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.07368361590711082</v>
+        <v>0.07368361590711081</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05225779208319121</v>
+        <v>0.05325597647031449</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09844638141320068</v>
+        <v>0.1014544543232637</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>57</v>
@@ -2979,19 +2979,19 @@
         <v>39279</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>29428</v>
+        <v>29952</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50174</v>
+        <v>52200</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04740912314951926</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03552004300022312</v>
+        <v>0.03615205702031372</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06055940564971842</v>
+        <v>0.06300522245696834</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>98</v>
@@ -3000,19 +3000,19 @@
         <v>81128</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>64474</v>
+        <v>65500</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>99860</v>
+        <v>98645</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0580953592329588</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04616911565885855</v>
+        <v>0.04690408545128868</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07150885245729947</v>
+        <v>0.07063885687349046</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>92279</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>72341</v>
+        <v>73922</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>113190</v>
+        <v>115013</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1624728905513203</v>
+        <v>0.1624728905513202</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.127369053682168</v>
+        <v>0.1301520233048517</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1992915027114075</v>
+        <v>0.2024999362781779</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>231</v>
@@ -3050,19 +3050,19 @@
         <v>168836</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>149852</v>
+        <v>150292</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>189778</v>
+        <v>191006</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2037846574921426</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1808706614410161</v>
+        <v>0.1814022955452404</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2290616036037902</v>
+        <v>0.2305434547278024</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>305</v>
@@ -3071,19 +3071,19 @@
         <v>261115</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>233163</v>
+        <v>230778</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>288632</v>
+        <v>288258</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1869825331418598</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.166966301646629</v>
+        <v>0.1652589884334817</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.206687805571373</v>
+        <v>0.2064200328828497</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>275139</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>247458</v>
+        <v>248944</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>301557</v>
+        <v>300642</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.4844301793357318</v>
+        <v>0.4844301793357317</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4356935131552654</v>
+        <v>0.4383097305191835</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5309432211511081</v>
+        <v>0.5293335320808833</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>818</v>
@@ -3121,19 +3121,19 @@
         <v>476790</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>452410</v>
+        <v>452458</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>502476</v>
+        <v>498574</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5754849793641107</v>
+        <v>0.5754849793641108</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5460574819298053</v>
+        <v>0.5461151582456923</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6064874879776907</v>
+        <v>0.6017776114487462</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1115</v>
@@ -3142,19 +3142,19 @@
         <v>751929</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>716007</v>
+        <v>715741</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>785332</v>
+        <v>788604</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5384516064038471</v>
+        <v>0.538451606403847</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5127279043691981</v>
+        <v>0.512537417371603</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5623711447014981</v>
+        <v>0.5647143885531746</v>
       </c>
     </row>
     <row r="38">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>23214</v>
+        <v>25323</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03364524779914206</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1041245663960041</v>
+        <v>0.1135837773425998</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -3267,19 +3267,19 @@
         <v>8400</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3708</v>
+        <v>3884</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>20215</v>
+        <v>18954</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.009975619965153889</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004403429791036458</v>
+        <v>0.004612453333707119</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02400833699775152</v>
+        <v>0.02250983397861042</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>11</v>
@@ -3288,19 +3288,19 @@
         <v>15901</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>7122</v>
+        <v>6656</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>33563</v>
+        <v>36668</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01493068199896704</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.006688015473316845</v>
+        <v>0.006249764093142205</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03151566311494936</v>
+        <v>0.03443141096132651</v>
       </c>
     </row>
     <row r="40">
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9700</v>
+        <v>9055</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.008101852789883911</v>
+        <v>0.008101852789883913</v>
       </c>
       <c r="H40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04351054125284444</v>
+        <v>0.04061590406330427</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>12</v>
@@ -3338,19 +3338,19 @@
         <v>9642</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5012</v>
+        <v>4813</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16593</v>
+        <v>15859</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01145065246096307</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.005952535733107264</v>
+        <v>0.005715997451883548</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01970633658283047</v>
+        <v>0.01883459743267669</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>13</v>
@@ -3359,19 +3359,19 @@
         <v>11448</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5903</v>
+        <v>6458</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20084</v>
+        <v>19913</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01074960594576679</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005542588994317964</v>
+        <v>0.00606379272942639</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0188587441651901</v>
+        <v>0.0186987995054176</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>21904</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11041</v>
+        <v>11061</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>37021</v>
+        <v>39001</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.09824942631509415</v>
+        <v>0.09824942631509417</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04952224522556962</v>
+        <v>0.04961507606153197</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1660559448019665</v>
+        <v>0.1749376234504349</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>80</v>
@@ -3409,19 +3409,19 @@
         <v>91128</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>71602</v>
+        <v>72791</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>117166</v>
+        <v>115564</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1082257382591192</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08503561899828639</v>
+        <v>0.08644789983263493</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.139148700096565</v>
+        <v>0.1372466240262142</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>91</v>
@@ -3430,19 +3430,19 @@
         <v>113032</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>90859</v>
+        <v>90281</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>140133</v>
+        <v>140571</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1061372709246083</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08531688749221246</v>
+        <v>0.08477386173409526</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1315851864351469</v>
+        <v>0.1319968061415613</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>12165</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4868</v>
+        <v>5104</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>25598</v>
+        <v>28020</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.05456482152362538</v>
+        <v>0.05456482152362536</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02183669315428649</v>
+        <v>0.02289324778077001</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1148183412987976</v>
+        <v>0.1256826514058093</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>28</v>
@@ -3480,19 +3480,19 @@
         <v>18155</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>12505</v>
+        <v>12339</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>26786</v>
+        <v>27416</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02156151023614854</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01485117248397068</v>
+        <v>0.01465423821259491</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03181133100537059</v>
+        <v>0.03255951559826317</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>35</v>
@@ -3501,19 +3501,19 @@
         <v>30320</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>19981</v>
+        <v>19932</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>45324</v>
+        <v>44503</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02847051006908504</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01876213213689604</v>
+        <v>0.0187166296507003</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04255968252734479</v>
+        <v>0.04178848468239696</v>
       </c>
     </row>
     <row r="43">
@@ -3530,19 +3530,19 @@
         <v>56872</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>38046</v>
+        <v>37288</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>79465</v>
+        <v>82243</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.2550973586109113</v>
+        <v>0.2550973586109114</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1706558189791416</v>
+        <v>0.1672539317831954</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3564388243131731</v>
+        <v>0.3688988924560742</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>132</v>
@@ -3551,19 +3551,19 @@
         <v>125535</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>105311</v>
+        <v>105360</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>150655</v>
+        <v>148547</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1490875145736687</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.125069090157395</v>
+        <v>0.1251280990604514</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1789214310716364</v>
+        <v>0.176417257625372</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>155</v>
@@ -3572,19 +3572,19 @@
         <v>182406</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>154873</v>
+        <v>155920</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>217538</v>
+        <v>218027</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1712798936462756</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1454262938712433</v>
+        <v>0.1464095051993144</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2042682567464821</v>
+        <v>0.2047278243285039</v>
       </c>
     </row>
     <row r="44">
@@ -3601,19 +3601,19 @@
         <v>122694</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>100794</v>
+        <v>97479</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>145009</v>
+        <v>145862</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5503412929613434</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4521066111297385</v>
+        <v>0.4372395243502045</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6504333598747162</v>
+        <v>0.6542598906079875</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>896</v>
@@ -3622,19 +3622,19 @@
         <v>589160</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>559596</v>
+        <v>560311</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>617104</v>
+        <v>615090</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.6996989645049465</v>
+        <v>0.6996989645049466</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6645878902111073</v>
+        <v>0.6654378463283499</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7328859018312343</v>
+        <v>0.730494484783286</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>960</v>
@@ -3643,19 +3643,19 @@
         <v>711854</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>673361</v>
+        <v>672259</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>745994</v>
+        <v>746131</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.6684320374152971</v>
+        <v>0.668432037415297</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6322867042737261</v>
+        <v>0.6312518861514087</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7004894879522885</v>
+        <v>0.7006177683432185</v>
       </c>
     </row>
     <row r="45">
@@ -3747,19 +3747,19 @@
         <v>38485</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>24420</v>
+        <v>24562</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>62623</v>
+        <v>60478</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01124888800779779</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007137962713013513</v>
+        <v>0.007179272445827087</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01830434461811282</v>
+        <v>0.01767741088399125</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>35</v>
@@ -3768,19 +3768,19 @@
         <v>27997</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>18673</v>
+        <v>19391</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>39575</v>
+        <v>41292</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.007728871766478366</v>
+        <v>0.007728871766478367</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.005155053781442765</v>
+        <v>0.005353238763234856</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01092508806646483</v>
+        <v>0.01139914636811973</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>57</v>
@@ -3789,19 +3789,19 @@
         <v>66482</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>49202</v>
+        <v>50299</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>91448</v>
+        <v>93902</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.009438615498808735</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.006985355122649508</v>
+        <v>0.0071411069807501</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01298325124213963</v>
+        <v>0.01333151825739204</v>
       </c>
     </row>
     <row r="47">
@@ -3818,19 +3818,19 @@
         <v>63071</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>47764</v>
+        <v>47793</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>82928</v>
+        <v>82754</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01843525315644802</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01396108719054604</v>
+        <v>0.01396964040000644</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02423934037267375</v>
+        <v>0.02418845631198716</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>72</v>
@@ -3839,19 +3839,19 @@
         <v>55216</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>42823</v>
+        <v>42101</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>71092</v>
+        <v>70182</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01524300463685831</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01182187140909212</v>
+        <v>0.01162240845311492</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01962597945198813</v>
+        <v>0.01937468613434409</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>131</v>
@@ -3860,19 +3860,19 @@
         <v>118287</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>98892</v>
+        <v>98296</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>142237</v>
+        <v>141240</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.01679354489696904</v>
+        <v>0.01679354489696903</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01404003487263494</v>
+        <v>0.01395535353217217</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02019392658849236</v>
+        <v>0.02005234839324764</v>
       </c>
     </row>
     <row r="48">
@@ -3889,19 +3889,19 @@
         <v>486569</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>440862</v>
+        <v>442090</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>534325</v>
+        <v>538392</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1422214038930224</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.128861395588363</v>
+        <v>0.1292203518753374</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1561803243647548</v>
+        <v>0.1573691253259482</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>503</v>
@@ -3910,19 +3910,19 @@
         <v>437235</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>400924</v>
+        <v>402558</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>483459</v>
+        <v>478481</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1207043670930594</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1106802676563234</v>
+        <v>0.1111313510245767</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1334650956219151</v>
+        <v>0.1320908367837056</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>895</v>
@@ -3931,19 +3931,19 @@
         <v>923804</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>871426</v>
+        <v>863865</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>992580</v>
+        <v>981848</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1311556310319067</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1237192718596841</v>
+        <v>0.1226458764519648</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1409199992304576</v>
+        <v>0.1393962690593522</v>
       </c>
     </row>
     <row r="49">
@@ -3960,19 +3960,19 @@
         <v>162964</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>138891</v>
+        <v>134661</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>194679</v>
+        <v>192609</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.04763357017016519</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04059715015361744</v>
+        <v>0.03936081063001827</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05690370585804804</v>
+        <v>0.05629868117042214</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>190</v>
@@ -3981,19 +3981,19 @@
         <v>134978</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>114892</v>
+        <v>116429</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>155139</v>
+        <v>156384</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0372623797813345</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.03171743352166705</v>
+        <v>0.0321416694971479</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04282809514318774</v>
+        <v>0.04317172658329868</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>337</v>
@@ -4002,19 +4002,19 @@
         <v>297942</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>265782</v>
+        <v>262911</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>333175</v>
+        <v>330792</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.0422998786303346</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0377339130166317</v>
+        <v>0.03732638054234481</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0473020565540498</v>
+        <v>0.0469636393065695</v>
       </c>
     </row>
     <row r="50">
@@ -4031,19 +4031,19 @@
         <v>826182</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>762886</v>
+        <v>773323</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>883015</v>
+        <v>891196</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2414883866746602</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2229873225340191</v>
+        <v>0.2260381521859872</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2581004365579422</v>
+        <v>0.2604915461667524</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1151</v>
@@ -4052,19 +4052,19 @@
         <v>890418</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>843128</v>
+        <v>846213</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>939641</v>
+        <v>939494</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2458112502248783</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2327562320543725</v>
+        <v>0.2336078832669009</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2593998858634408</v>
+        <v>0.2593591582909551</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1831</v>
@@ -4073,19 +4073,19 @@
         <v>1716600</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1645104</v>
+        <v>1646337</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1789186</v>
+        <v>1792227</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2437115471684133</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2335610539596481</v>
+        <v>0.233736054363875</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2540167676229114</v>
+        <v>0.254448600286752</v>
       </c>
     </row>
     <row r="51">
@@ -4102,19 +4102,19 @@
         <v>1843936</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>1774721</v>
+        <v>1774310</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>1907251</v>
+        <v>1910510</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.5389724980979064</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5187410983843969</v>
+        <v>0.5186210670831509</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5574790485551</v>
+        <v>0.5584316031123048</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>3276</v>
@@ -4123,19 +4123,19 @@
         <v>2076522</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>2022553</v>
+        <v>2026014</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>2129761</v>
+        <v>2129022</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.5732501264973912</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.55835124686136</v>
+        <v>0.5593068065179357</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.5879474435822407</v>
+        <v>0.5877435609104533</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>5266</v>
@@ -4144,19 +4144,19 @@
         <v>3920458</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>3837075</v>
+        <v>3832497</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>3996436</v>
+        <v>4002371</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.5566007827735675</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5447625864970855</v>
+        <v>0.5441126282415831</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.5673876199163648</v>
+        <v>0.5682301503413618</v>
       </c>
     </row>
     <row r="52">
